--- a/app/static/input_files/samples/Clayton.xlsx
+++ b/app/static/input_files/samples/Clayton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC35A39-EAD5-C546-AE88-F7445FD23123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1404FCFD-A966-3F40-A319-2B7B40988E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="1791">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5449,9 +5449,6 @@
     <t/>
   </si>
   <si>
-    <t>Type fund name</t>
-  </si>
-  <si>
     <t>Internal Service Funds</t>
   </si>
   <si>
@@ -5459,6 +5456,9 @@
   </si>
   <si>
     <t>Endeavor Hall</t>
+  </si>
+  <si>
+    <t>Governmental -Type Actvities</t>
   </si>
 </sst>
 </file>
@@ -5469,7 +5469,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5604,13 +5604,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -5973,7 +5966,7 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6235,11 +6228,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -6253,6 +6242,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -6261,6 +6251,13 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
   <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6579,14 +6576,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -15078,11 +15067,6 @@
         <row r="3">
           <cell r="C3" t="str">
             <v>California</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>44742</v>
           </cell>
         </row>
       </sheetData>
@@ -34784,161 +34768,111 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="111" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="111" customWidth="1"/>
-    <col min="3" max="10" width="18.6640625" style="111" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="111"/>
+    <col min="3" max="5" width="18.6640625" style="111" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="151" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="152" t="str">
+      <c r="B1" s="150" t="str">
         <f>_xlfn.CONCAT('[3]Master Info'!C2, ", ", '[3]Master Info'!$C$3)</f>
         <v>City of Clayton, California</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="149"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="151" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="147"/>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="149" t="s">
         <v>1084</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="148" t="s">
         <v>1081</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="149"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="151" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="147"/>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="149" t="s">
         <v>1075</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="149"/>
-    </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1">
-      <c r="A4" s="148" t="s">
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="147"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickBot="1">
+      <c r="A4" s="146" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="147">
-        <f>'[3]Master Info'!C4</f>
-        <v>44742</v>
-      </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="146"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="143"/>
-    </row>
-    <row r="6" spans="1:11" s="130" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="142"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="140" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="139" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="127"/>
-    </row>
-    <row r="7" spans="1:11" ht="37" customHeight="1">
+      <c r="B4" s="145" t="str">
+        <f>'Master Info'!C4</f>
+        <v>June 30, 2022</v>
+      </c>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="144"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="141"/>
+    </row>
+    <row r="6" spans="1:6" s="130" customFormat="1" ht="39" customHeight="1">
+      <c r="A6" s="140"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="135" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E6" s="152"/>
+    </row>
+    <row r="7" spans="1:6" ht="43" customHeight="1">
       <c r="A7" s="137" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="136"/>
       <c r="C7" s="135" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E7" s="134" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F7" s="134" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G7" s="134" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H7" s="134" t="s">
-        <v>1787</v>
-      </c>
-      <c r="I7" s="134" t="s">
-        <v>1787</v>
-      </c>
-      <c r="J7" s="133" t="str">
-        <f>IF((COUNTIF(D7:I7, "Type fund name") + COUNTIF(D7:I7, "")) &lt;5, "Totals", "")</f>
-        <v/>
-      </c>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:11" ht="15">
+        <v>1789</v>
+      </c>
+      <c r="E7" s="133" t="str">
+        <f>IF((COUNTIF(D7:D7, "Type fund name") + COUNTIF(D7:D7, "")) &lt;5, "Totals", "")</f>
+        <v>Totals</v>
+      </c>
+      <c r="F7" s="132"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="123"/>
       <c r="B8" s="122" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="131"/>
       <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="122"/>
-    </row>
-    <row r="9" spans="1:11" ht="15">
+      <c r="E8" s="122"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="123"/>
       <c r="B9" s="124" t="s">
         <v>5</v>
@@ -34946,13 +34880,8 @@
       <c r="C9" s="127"/>
       <c r="D9" s="127"/>
       <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-    </row>
-    <row r="10" spans="1:11" ht="15">
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="120" t="str">
         <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:CashAndCashEquivalentsAndInvestments</v>
@@ -34966,17 +34895,12 @@
       <c r="D10" s="118">
         <v>0</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="117" t="str">
-        <f>IF(J$7="","",SUM(D10:I10))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15">
+      <c r="E10" s="117">
+        <f>IF(E$7="","",SUM(D10:D10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="120" t="str">
         <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -34984,17 +34908,12 @@
       <c r="B11" s="119"/>
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="117" t="str">
-        <f>IF(J$7="","",SUM(D11:I11))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15">
+      <c r="E11" s="117">
+        <f>IF(E$7="","",SUM(D11:D11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="120" t="str">
         <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35002,17 +34921,12 @@
       <c r="B12" s="119"/>
       <c r="C12" s="118"/>
       <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="117" t="str">
-        <f>IF(J$7="","",SUM(D12:I12))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15">
+      <c r="E12" s="117">
+        <f>IF(E$7="","",SUM(D12:D12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="120" t="str">
         <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35020,17 +34934,12 @@
       <c r="B13" s="119"/>
       <c r="C13" s="118"/>
       <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="117" t="str">
-        <f>IF(J$7="","",SUM(D13:I13))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15">
+      <c r="E13" s="117">
+        <f>IF(E$7="","",SUM(D13:D13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="120" t="str">
         <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35038,17 +34947,12 @@
       <c r="B14" s="119"/>
       <c r="C14" s="118"/>
       <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="117" t="str">
-        <f>IF(J$7="","",SUM(D14:I14))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15">
+      <c r="E14" s="117">
+        <f>IF(E$7="","",SUM(D14:D14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="120" t="str">
         <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35056,17 +34960,12 @@
       <c r="B15" s="119"/>
       <c r="C15" s="118"/>
       <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="117" t="str">
-        <f>IF(J$7="","",SUM(D15:I15))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15">
+      <c r="E15" s="117">
+        <f>IF(E$7="","",SUM(D15:D15))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="120" t="str">
         <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35074,17 +34973,12 @@
       <c r="B16" s="119"/>
       <c r="C16" s="118"/>
       <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="117" t="str">
-        <f>IF(J$7="","",SUM(D16:I16))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
+      <c r="E16" s="117">
+        <f>IF(E$7="","",SUM(D16:D16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="120" t="str">
         <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35092,17 +34986,12 @@
       <c r="B17" s="119"/>
       <c r="C17" s="118"/>
       <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="117" t="str">
-        <f>IF(J$7="","",SUM(D17:I17))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
+      <c r="E17" s="117">
+        <f>IF(E$7="","",SUM(D17:D17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="120" t="str">
         <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35110,17 +34999,12 @@
       <c r="B18" s="119"/>
       <c r="C18" s="118"/>
       <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="117" t="str">
-        <f>IF(J$7="","",SUM(D18:I18))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" hidden="1">
+      <c r="E18" s="117">
+        <f>IF(E$7="","",SUM(D18:D18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" hidden="1">
       <c r="A19" s="120" t="str">
         <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35128,17 +35012,12 @@
       <c r="B19" s="119"/>
       <c r="C19" s="118"/>
       <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="117" t="str">
-        <f>IF(J$7="","",SUM(D19:I19))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" hidden="1">
+      <c r="E19" s="117">
+        <f>IF(E$7="","",SUM(D19:D19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" hidden="1">
       <c r="A20" s="120" t="str">
         <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35146,17 +35025,12 @@
       <c r="B20" s="119"/>
       <c r="C20" s="118"/>
       <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="117" t="str">
-        <f>IF(J$7="","",SUM(D20:I20))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" hidden="1">
+      <c r="E20" s="117">
+        <f>IF(E$7="","",SUM(D20:D20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="120" t="str">
         <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35164,17 +35038,12 @@
       <c r="B21" s="119"/>
       <c r="C21" s="118"/>
       <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="117" t="str">
-        <f>IF(J$7="","",SUM(D21:I21))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" hidden="1">
+      <c r="E21" s="117">
+        <f>IF(E$7="","",SUM(D21:D21))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="120" t="str">
         <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35182,17 +35051,12 @@
       <c r="B22" s="119"/>
       <c r="C22" s="118"/>
       <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="117" t="str">
-        <f>IF(J$7="","",SUM(D22:I22))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15">
+      <c r="E22" s="117">
+        <f>IF(E$7="","",SUM(D22:D22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="120" t="str">
         <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35200,17 +35064,12 @@
       <c r="B23" s="119"/>
       <c r="C23" s="118"/>
       <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="str">
-        <f>IF(J$7="","",SUM(D23:I23))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15">
+      <c r="E23" s="117">
+        <f>IF(E$7="","",SUM(D23:D23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="120" t="s">
         <v>10</v>
       </c>
@@ -35225,32 +35084,12 @@
         <f>IF(D$7="Type fund name","",SUM(D10:D23))</f>
         <v>0</v>
       </c>
-      <c r="E24" s="117" t="str">
-        <f>IF(E$7="Type fund name","",SUM(E10:E23))</f>
-        <v/>
-      </c>
-      <c r="F24" s="117" t="str">
-        <f>IF(F$7="Type fund name","",SUM(F10:F23))</f>
-        <v/>
-      </c>
-      <c r="G24" s="117" t="str">
-        <f>IF(G$7="Type fund name","",SUM(G10:G23))</f>
-        <v/>
-      </c>
-      <c r="H24" s="117" t="str">
-        <f>IF(H$7="Type fund name","",SUM(H10:H23))</f>
-        <v/>
-      </c>
-      <c r="I24" s="117" t="str">
-        <f>IF(I$7="Type fund name","",SUM(I10:I23))</f>
-        <v/>
-      </c>
-      <c r="J24" s="117" t="str">
-        <f>IF(J7="","",SUM(J10:J23))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15">
+      <c r="E24" s="117">
+        <f>IF(E7="","",SUM(E10:E23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="123"/>
       <c r="B25" s="124" t="s">
         <v>12</v>
@@ -35258,13 +35097,8 @@
       <c r="C25" s="124"/>
       <c r="D25" s="124"/>
       <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-    </row>
-    <row r="26" spans="1:10" ht="15">
+    </row>
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="120" t="str">
         <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:Land</v>
@@ -35278,17 +35112,12 @@
       <c r="D26" s="118">
         <v>167738</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="117" t="str">
-        <f>IF(J$7="","",SUM(D26:I26))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15">
+      <c r="E26" s="117">
+        <f>IF(E$7="","",SUM(D26:D26))</f>
+        <v>167738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="120" t="str">
         <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:CapitalAssetsBeingDepreciatedNet</v>
@@ -35302,17 +35131,12 @@
       <c r="D27" s="118">
         <v>841465</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="117" t="str">
-        <f>IF(J$7="","",SUM(D27:I27))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15">
+      <c r="E27" s="117">
+        <f>IF(E$7="","",SUM(D27:D27))</f>
+        <v>841465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="120" t="str">
         <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35320,17 +35144,12 @@
       <c r="B28" s="118"/>
       <c r="C28" s="118"/>
       <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="117" t="str">
-        <f>IF(J$7="","",SUM(D28:I28))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15">
+      <c r="E28" s="117">
+        <f>IF(E$7="","",SUM(D28:D28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="120" t="str">
         <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35338,17 +35157,12 @@
       <c r="B29" s="118"/>
       <c r="C29" s="118"/>
       <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="117" t="str">
-        <f>IF(J$7="","",SUM(D29:I29))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15">
+      <c r="E29" s="117">
+        <f>IF(E$7="","",SUM(D29:D29))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="120" t="str">
         <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35356,17 +35170,12 @@
       <c r="B30" s="118"/>
       <c r="C30" s="118"/>
       <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="117" t="str">
-        <f>IF(J$7="","",SUM(D30:I30))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15">
+      <c r="E30" s="117">
+        <f>IF(E$7="","",SUM(D30:D30))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="120" t="str">
         <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35374,17 +35183,12 @@
       <c r="B31" s="119"/>
       <c r="C31" s="118"/>
       <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="117" t="str">
-        <f>IF(J$7="","",SUM(D31:I31))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15">
+      <c r="E31" s="117">
+        <f>IF(E$7="","",SUM(D31:D31))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="120" t="str">
         <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35392,17 +35196,12 @@
       <c r="B32" s="119"/>
       <c r="C32" s="118"/>
       <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="117" t="str">
-        <f>IF(J$7="","",SUM(D32:I32))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" hidden="1">
+      <c r="E32" s="117">
+        <f>IF(E$7="","",SUM(D32:D32))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="120" t="str">
         <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35410,17 +35209,12 @@
       <c r="B33" s="119"/>
       <c r="C33" s="118"/>
       <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="117">
-        <f>SUM(H33:I33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" hidden="1">
+      <c r="E33" s="117" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="120" t="str">
         <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35428,17 +35222,12 @@
       <c r="B34" s="119"/>
       <c r="C34" s="118"/>
       <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="117">
-        <f>SUM(H34:I34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" hidden="1">
+      <c r="E34" s="117" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="120" t="str">
         <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35446,17 +35235,12 @@
       <c r="B35" s="119"/>
       <c r="C35" s="118"/>
       <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="117">
-        <f>SUM(H35:I35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" hidden="1">
+      <c r="E35" s="117" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="120" t="str">
         <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35464,17 +35248,12 @@
       <c r="B36" s="119"/>
       <c r="C36" s="118"/>
       <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="117">
-        <f>SUM(H36:I36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" hidden="1">
+      <c r="E36" s="117" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="120" t="str">
         <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35482,17 +35261,12 @@
       <c r="B37" s="119"/>
       <c r="C37" s="118"/>
       <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="117">
-        <f>SUM(H37:I37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="130" customFormat="1" ht="15">
+      <c r="E37" s="117" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="130" customFormat="1" ht="15">
       <c r="A38" s="120" t="s">
         <v>17</v>
       </c>
@@ -35507,32 +35281,12 @@
         <f>IF(D$7="Type fund name","",SUM(D26:D32))</f>
         <v>1009203</v>
       </c>
-      <c r="E38" s="117" t="str">
-        <f>IF(E$7="Type fund name","",SUM(E26:E32))</f>
-        <v/>
-      </c>
-      <c r="F38" s="117" t="str">
-        <f>IF(F$7="Type fund name","",SUM(F26:F32))</f>
-        <v/>
-      </c>
-      <c r="G38" s="117" t="str">
-        <f>IF(G$7="Type fund name","",SUM(G26:G32))</f>
-        <v/>
-      </c>
-      <c r="H38" s="117" t="str">
-        <f>IF(H$7="Type fund name","",SUM(H26:H32))</f>
-        <v/>
-      </c>
-      <c r="I38" s="117" t="str">
-        <f>IF(I$7="Type fund name","",SUM(I26:I32))</f>
-        <v/>
-      </c>
-      <c r="J38" s="117" t="str">
-        <f>IF(J7="","",SUM(J26:J37))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15">
+      <c r="E38" s="117" t="e">
+        <f>IF(E7="","",SUM(E26:E37))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="120" t="s">
         <v>19</v>
       </c>
@@ -35547,44 +35301,19 @@
         <f>IF(D$7="Type fund name","",D24+D38)</f>
         <v>1009203</v>
       </c>
-      <c r="E39" s="114" t="str">
-        <f>IF(E$7="Type fund name","",E24+E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="114" t="str">
-        <f>IF(F$7="Type fund name","",F24+F38)</f>
-        <v/>
-      </c>
-      <c r="G39" s="114" t="str">
-        <f>IF(G$7="Type fund name","",G24+G38)</f>
-        <v/>
-      </c>
-      <c r="H39" s="114" t="str">
-        <f>IF(H$7="Type fund name","",H24+H38)</f>
-        <v/>
-      </c>
-      <c r="I39" s="114" t="str">
-        <f>IF(I$7="Type fund name","",I24+I38)</f>
-        <v/>
-      </c>
-      <c r="J39" s="115" t="str">
-        <f>IF(J7="","",J24+J38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15">
+      <c r="E39" s="115" t="e">
+        <f>IF(E7="","",E24+E38)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="123"/>
       <c r="B40" s="123"/>
       <c r="C40" s="112"/>
       <c r="D40" s="112"/>
       <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-    </row>
-    <row r="41" spans="1:10" ht="15">
+    </row>
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="123"/>
       <c r="B41" s="122" t="s">
         <v>26</v>
@@ -35592,27 +35321,17 @@
       <c r="C41" s="122"/>
       <c r="D41" s="122"/>
       <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-    </row>
-    <row r="42" spans="1:10" ht="15">
+    </row>
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="123"/>
       <c r="B42" s="124" t="s">
         <v>1078</v>
       </c>
       <c r="C42" s="127"/>
       <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="129"/>
-    </row>
-    <row r="43" spans="1:10" ht="15">
+      <c r="E42" s="129"/>
+    </row>
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="120" t="str">
         <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:AccountsPayable</v>
@@ -35626,17 +35345,12 @@
       <c r="D43" s="118">
         <v>2671</v>
       </c>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="117" t="str">
-        <f>IF(J$7="","",SUM(D43:I43))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15">
+      <c r="E43" s="117">
+        <f>IF(E$7="","",SUM(D43:D43))</f>
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="120" t="str">
         <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:PerformanceDepositsPayable</v>
@@ -35650,17 +35364,12 @@
       <c r="D44" s="128">
         <v>5500</v>
       </c>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="117" t="str">
-        <f>IF(J$7="","",SUM(D44:I44))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15">
+      <c r="E44" s="117">
+        <f>IF(E$7="","",SUM(D44:D44))</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="120" t="str">
         <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:DueToOtherFunds</v>
@@ -35674,17 +35383,12 @@
       <c r="D45" s="118">
         <v>120893</v>
       </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="117" t="str">
-        <f>IF(J$7="","",SUM(D45:I45))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16" customHeight="1">
+      <c r="E45" s="117">
+        <f>IF(E$7="","",SUM(D45:D45))</f>
+        <v>120893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" customHeight="1">
       <c r="A46" s="120" t="str">
         <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35692,17 +35396,12 @@
       <c r="B46" s="119"/>
       <c r="C46" s="118"/>
       <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="117" t="str">
-        <f>IF(J$7="","",SUM(D46:I46))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16" customHeight="1">
+      <c r="E46" s="117">
+        <f>IF(E$7="","",SUM(D46:D46))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" customHeight="1">
       <c r="A47" s="120" t="str">
         <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35710,17 +35409,12 @@
       <c r="B47" s="119"/>
       <c r="C47" s="118"/>
       <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="117" t="str">
-        <f>IF(J$7="","",SUM(D47:I47))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16" customHeight="1">
+      <c r="E47" s="117">
+        <f>IF(E$7="","",SUM(D47:D47))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" customHeight="1">
       <c r="A48" s="120" t="str">
         <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35728,17 +35422,12 @@
       <c r="B48" s="119"/>
       <c r="C48" s="118"/>
       <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="117" t="str">
-        <f>IF(J$7="","",SUM(D48:I48))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="E48" s="117">
+        <f>IF(E$7="","",SUM(D48:D48))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" hidden="1" customHeight="1">
       <c r="A49" s="120" t="str">
         <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35746,17 +35435,12 @@
       <c r="B49" s="119"/>
       <c r="C49" s="118"/>
       <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="117" t="str">
-        <f>IF(J$7="","",SUM(D49:I49))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="E49" s="117">
+        <f>IF(E$7="","",SUM(D49:D49))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" hidden="1" customHeight="1">
       <c r="A50" s="120" t="str">
         <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35764,17 +35448,12 @@
       <c r="B50" s="119"/>
       <c r="C50" s="118"/>
       <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="117" t="str">
-        <f>IF(J$7="","",SUM(D50:I50))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" hidden="1">
+      <c r="E50" s="117">
+        <f>IF(E$7="","",SUM(D50:D50))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="120" t="str">
         <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35782,17 +35461,12 @@
       <c r="B51" s="119"/>
       <c r="C51" s="118"/>
       <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="117" t="str">
-        <f>IF(J$7="","",SUM(D51:I51))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" hidden="1">
+      <c r="E51" s="117">
+        <f>IF(E$7="","",SUM(D51:D51))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="120" t="str">
         <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35800,17 +35474,12 @@
       <c r="B52" s="119"/>
       <c r="C52" s="118"/>
       <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="117" t="str">
-        <f>IF(J$7="","",SUM(D52:I52))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" hidden="1">
+      <c r="E52" s="117">
+        <f>IF(E$7="","",SUM(D52:D52))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="120" t="str">
         <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35818,17 +35487,12 @@
       <c r="B53" s="119"/>
       <c r="C53" s="118"/>
       <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="117" t="str">
-        <f>IF(J$7="","",SUM(D53:I53))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15">
+      <c r="E53" s="117">
+        <f>IF(E$7="","",SUM(D53:D53))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
       <c r="A54" s="120" t="s">
         <v>33</v>
       </c>
@@ -35843,46 +35507,21 @@
         <f>IF(D$7="Type fund name","",SUM(D43:D53))</f>
         <v>129064</v>
       </c>
-      <c r="E54" s="117" t="str">
-        <f>IF(E$7="Type fund name","",SUM(E43:E53))</f>
-        <v/>
-      </c>
-      <c r="F54" s="117" t="str">
-        <f>IF(F$7="Type fund name","",SUM(F43:F53))</f>
-        <v/>
-      </c>
-      <c r="G54" s="117" t="str">
-        <f>IF(G$7="Type fund name","",SUM(G43:G53))</f>
-        <v/>
-      </c>
-      <c r="H54" s="117" t="str">
-        <f>IF(H$7="Type fund name","",SUM(H43:H53))</f>
-        <v/>
-      </c>
-      <c r="I54" s="117" t="str">
-        <f>IF(I$7="Type fund name","",SUM(I43:I53))</f>
-        <v/>
-      </c>
-      <c r="J54" s="117" t="str">
-        <f>IF(J$7="","",SUM(D54:I54))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15">
+      <c r="E54" s="117">
+        <f>IF(E$7="","",SUM(D54:D54))</f>
+        <v>129064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
       <c r="A55" s="123"/>
       <c r="B55" s="124" t="s">
         <v>1079</v>
       </c>
       <c r="C55" s="124"/>
       <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="127"/>
-    </row>
-    <row r="56" spans="1:10" ht="15">
+      <c r="E55" s="127"/>
+    </row>
+    <row r="56" spans="1:5" ht="15">
       <c r="A56" s="120" t="str">
         <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35890,17 +35529,12 @@
       <c r="B56" s="119"/>
       <c r="C56" s="118"/>
       <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="117" t="str">
-        <f>IF(J$7="","",SUM(D56:I56))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15">
+      <c r="E56" s="117">
+        <f>IF(E$7="","",SUM(D56:D56))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
       <c r="A57" s="120" t="str">
         <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35908,17 +35542,12 @@
       <c r="B57" s="119"/>
       <c r="C57" s="118"/>
       <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="117" t="str">
-        <f>IF(J$7="","",SUM(D57:I57))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15">
+      <c r="E57" s="117">
+        <f>IF(E$7="","",SUM(D57:D57))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
       <c r="A58" s="120" t="str">
         <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35926,17 +35555,12 @@
       <c r="B58" s="119"/>
       <c r="C58" s="118"/>
       <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="117" t="str">
-        <f>IF(J$7="","",SUM(D58:I58))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15">
+      <c r="E58" s="117">
+        <f>IF(E$7="","",SUM(D58:D58))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15">
       <c r="A59" s="120" t="str">
         <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35944,17 +35568,12 @@
       <c r="B59" s="119"/>
       <c r="C59" s="118"/>
       <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="117" t="str">
-        <f>IF(J$7="","",SUM(D59:I59))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15" hidden="1">
+      <c r="E59" s="117">
+        <f>IF(E$7="","",SUM(D59:D59))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="120" t="str">
         <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35962,17 +35581,12 @@
       <c r="B60" s="119"/>
       <c r="C60" s="118"/>
       <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="117" t="str">
-        <f>IF(J$7="","",SUM(D60:I60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" hidden="1">
+      <c r="E60" s="117">
+        <f>IF(E$7="","",SUM(D60:D60))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="120" t="str">
         <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35980,17 +35594,12 @@
       <c r="B61" s="119"/>
       <c r="C61" s="118"/>
       <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="117" t="str">
-        <f>IF(J$7="","",SUM(D61:I61))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15" hidden="1">
+      <c r="E61" s="117">
+        <f>IF(E$7="","",SUM(D61:D61))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="120" t="str">
         <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -35998,17 +35607,12 @@
       <c r="B62" s="119"/>
       <c r="C62" s="118"/>
       <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="117" t="str">
-        <f>IF(J$7="","",SUM(D62:I62))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15" hidden="1">
+      <c r="E62" s="117">
+        <f>IF(E$7="","",SUM(D62:D62))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="120" t="str">
         <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36016,17 +35620,12 @@
       <c r="B63" s="119"/>
       <c r="C63" s="118"/>
       <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="118"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="117" t="str">
-        <f>IF(J$7="","",SUM(D63:I63))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" hidden="1">
+      <c r="E63" s="117">
+        <f>IF(E$7="","",SUM(D63:D63))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="120" t="str">
         <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36034,17 +35633,12 @@
       <c r="B64" s="119"/>
       <c r="C64" s="118"/>
       <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="117" t="str">
-        <f>IF(J$7="","",SUM(D64:I64))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15">
+      <c r="E64" s="117">
+        <f>IF(E$7="","",SUM(D64:D64))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="120" t="s">
         <v>38</v>
       </c>
@@ -36059,32 +35653,12 @@
         <f>IF(D$7="Type fund name","",SUM(D56:D64))</f>
         <v>0</v>
       </c>
-      <c r="E65" s="117" t="str">
-        <f>IF(E$7="Type fund name","",SUM(E56:E64))</f>
-        <v/>
-      </c>
-      <c r="F65" s="117" t="str">
-        <f>IF(F$7="Type fund name","",SUM(F56:F64))</f>
-        <v/>
-      </c>
-      <c r="G65" s="117" t="str">
-        <f>IF(G$7="Type fund name","",SUM(G56:G64))</f>
-        <v/>
-      </c>
-      <c r="H65" s="117" t="str">
-        <f>IF(H$7="Type fund name","",SUM(H56:H64))</f>
-        <v/>
-      </c>
-      <c r="I65" s="117" t="str">
-        <f>IF(I$7="Type fund name","",SUM(I56:I64))</f>
-        <v/>
-      </c>
-      <c r="J65" s="117" t="str">
-        <f>IF(J$7="","",SUM(D65:I65))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15">
+      <c r="E65" s="117">
+        <f>IF(E$7="","",SUM(D65:D65))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="126" t="s">
         <v>40</v>
       </c>
@@ -36099,58 +35673,28 @@
         <f>IF(D$7 = "Type fund name", "", D54+D65)</f>
         <v>129064</v>
       </c>
-      <c r="E66" s="115" t="str">
-        <f>IF(E$7 = "Type fund name", "", E54+E65)</f>
-        <v/>
-      </c>
-      <c r="F66" s="115" t="str">
-        <f>IF(F$7 = "Type fund name", "", F54+F65)</f>
-        <v/>
-      </c>
-      <c r="G66" s="115" t="str">
-        <f>IF(G$7 = "Type fund name", "", G54+G65)</f>
-        <v/>
-      </c>
-      <c r="H66" s="115" t="str">
-        <f>IF(H$7 = "Type fund name", "", H54+H65)</f>
-        <v/>
-      </c>
-      <c r="I66" s="115" t="str">
-        <f>IF(I$7 = "Type fund name", "", I54+I65)</f>
-        <v/>
-      </c>
-      <c r="J66" s="125" t="str">
-        <f>IF(J$7="","",SUM(D66:I66))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15">
+      <c r="E66" s="125">
+        <f>IF(E$7="","",SUM(D66:D66))</f>
+        <v>129064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="123"/>
       <c r="B67" s="123"/>
       <c r="C67" s="112"/>
       <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="124"/>
-    </row>
-    <row r="68" spans="1:10" ht="15">
+      <c r="E67" s="124"/>
+    </row>
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="123"/>
       <c r="B68" s="122" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="122"/>
       <c r="D68" s="122"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="121"/>
-    </row>
-    <row r="69" spans="1:10" ht="15">
+      <c r="E68" s="121"/>
+    </row>
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="120" t="str">
         <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:NetInvestmentInCapitalAssets</v>
@@ -36164,17 +35708,12 @@
       <c r="D69" s="118">
         <v>1009203</v>
       </c>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="117" t="str">
-        <f>IF(J$7="","",SUM(D69:I69))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15">
+      <c r="E69" s="117">
+        <f>IF(E$7="","",SUM(D69:D69))</f>
+        <v>1009203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="120" t="str">
         <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>acfr:UnrestrictedNetPosition</v>
@@ -36188,17 +35727,12 @@
       <c r="D70" s="118">
         <v>-129064</v>
       </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="118"/>
-      <c r="I70" s="118"/>
-      <c r="J70" s="117" t="str">
-        <f>IF(J$7="","",SUM(D70:I70))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15">
+      <c r="E70" s="117">
+        <f>IF(E$7="","",SUM(D70:D70))</f>
+        <v>-129064</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="120" t="str">
         <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36206,17 +35740,12 @@
       <c r="B71" s="119"/>
       <c r="C71" s="118"/>
       <c r="D71" s="118"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="118"/>
-      <c r="I71" s="118"/>
-      <c r="J71" s="117" t="str">
-        <f>IF(J$7="","",SUM(D71:I71))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15">
+      <c r="E71" s="117">
+        <f>IF(E$7="","",SUM(D71:D71))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="120" t="str">
         <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'[4]Label Dropdowns'!$B$2:$B$522,'[4]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36224,17 +35753,12 @@
       <c r="B72" s="119"/>
       <c r="C72" s="118"/>
       <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="118"/>
-      <c r="I72" s="118"/>
-      <c r="J72" s="117" t="str">
-        <f>IF(J$7="","",SUM(D72:I72))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15" hidden="1">
+      <c r="E72" s="117">
+        <f>IF(E$7="","",SUM(D72:D72))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="120" t="str">
         <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36242,17 +35766,12 @@
       <c r="B73" s="119"/>
       <c r="C73" s="118"/>
       <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="117" t="str">
-        <f>IF(J$7="","",SUM(D73:I73))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15" hidden="1">
+      <c r="E73" s="117">
+        <f>IF(E$7="","",SUM(D73:D73))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="120" t="str">
         <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36260,17 +35779,12 @@
       <c r="B74" s="119"/>
       <c r="C74" s="118"/>
       <c r="D74" s="118"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="117" t="str">
-        <f>IF(J$7="","",SUM(D74:I74))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15" hidden="1">
+      <c r="E74" s="117">
+        <f>IF(E$7="","",SUM(D74:D74))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="120" t="str">
         <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36278,17 +35792,12 @@
       <c r="B75" s="119"/>
       <c r="C75" s="118"/>
       <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="117" t="str">
-        <f>IF(J$7="","",SUM(D75:I75))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15" hidden="1">
+      <c r="E75" s="117">
+        <f>IF(E$7="","",SUM(D75:D75))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="120" t="str">
         <f>IF(B76="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B76,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36296,17 +35805,12 @@
       <c r="B76" s="119"/>
       <c r="C76" s="118"/>
       <c r="D76" s="118"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="117" t="str">
-        <f>IF(J$7="","",SUM(D76:I76))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15" hidden="1">
+      <c r="E76" s="117">
+        <f>IF(E$7="","",SUM(D76:D76))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="120" t="str">
         <f>IF(B77="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B77,'[3]Label Dropdowns'!$B$2:$B$522,'[3]Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -36314,17 +35818,12 @@
       <c r="B77" s="119"/>
       <c r="C77" s="118"/>
       <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="117" t="str">
-        <f>IF(J$7="","",SUM(D77:I77))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15">
+      <c r="E77" s="117">
+        <f>IF(E$7="","",SUM(D77:D77))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="116" t="s">
         <v>51</v>
       </c>
@@ -36339,147 +35838,122 @@
         <f>IF(D7="Type fund name","",SUM(D69:D77))</f>
         <v>880139</v>
       </c>
-      <c r="E78" s="115" t="str">
-        <f>IF(E7="Type fund name","",SUM(E69:E77))</f>
-        <v/>
-      </c>
-      <c r="F78" s="115" t="str">
-        <f>IF(F7="Type fund name","",SUM(F69:F77))</f>
-        <v/>
-      </c>
-      <c r="G78" s="115" t="str">
-        <f>IF(G7="Type fund name","",SUM(G69:G77))</f>
-        <v/>
-      </c>
-      <c r="H78" s="115" t="str">
-        <f>IF(H7="Type fund name","",SUM(H69:H77))</f>
-        <v/>
-      </c>
-      <c r="I78" s="115" t="str">
-        <f>IF(I7="Type fund name","",SUM(I69:I77))</f>
-        <v/>
-      </c>
-      <c r="J78" s="114" t="str">
-        <f>IF(J$7="","",SUM(D78:I78))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="16">
+      <c r="E78" s="114">
+        <f>IF(E$7="","",SUM(D78:D78))</f>
+        <v>880139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16">
       <c r="C79" s="113"/>
       <c r="D79" s="113"/>
-      <c r="E79" s="113"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="113"/>
-      <c r="H79" s="113"/>
-      <c r="I79" s="113"/>
-      <c r="J79" s="112"/>
-    </row>
-    <row r="80" spans="1:10" ht="15">
-      <c r="J80" s="112"/>
-    </row>
-    <row r="81" spans="10:10" ht="15">
-      <c r="J81" s="112"/>
-    </row>
-    <row r="82" spans="10:10" ht="15">
-      <c r="J82" s="112"/>
-    </row>
-    <row r="83" spans="10:10" ht="15">
-      <c r="J83" s="112"/>
-    </row>
-    <row r="84" spans="10:10" ht="15">
-      <c r="J84" s="112"/>
-    </row>
-    <row r="85" spans="10:10" ht="15">
-      <c r="J85" s="112"/>
-    </row>
-    <row r="86" spans="10:10" ht="15">
-      <c r="J86" s="112"/>
-    </row>
-    <row r="87" spans="10:10" ht="15">
-      <c r="J87" s="112"/>
-    </row>
-    <row r="88" spans="10:10" ht="15">
-      <c r="J88" s="112"/>
-    </row>
-    <row r="89" spans="10:10" ht="15">
-      <c r="J89" s="112"/>
-    </row>
-    <row r="90" spans="10:10" ht="15">
-      <c r="J90" s="112"/>
-    </row>
-    <row r="91" spans="10:10" ht="15">
-      <c r="J91" s="112"/>
-    </row>
-    <row r="92" spans="10:10" ht="15">
-      <c r="J92" s="112"/>
-    </row>
-    <row r="93" spans="10:10" ht="15">
-      <c r="J93" s="112"/>
-    </row>
-    <row r="94" spans="10:10" ht="15">
-      <c r="J94" s="112"/>
-    </row>
-    <row r="95" spans="10:10" ht="15">
-      <c r="J95" s="112"/>
-    </row>
-    <row r="96" spans="10:10" ht="15">
-      <c r="J96" s="112"/>
-    </row>
-    <row r="97" spans="10:10" ht="15">
-      <c r="J97" s="112"/>
-    </row>
-    <row r="98" spans="10:10" ht="15">
-      <c r="J98" s="112"/>
-    </row>
-    <row r="99" spans="10:10" ht="15">
-      <c r="J99" s="112"/>
-    </row>
-    <row r="100" spans="10:10" ht="15">
-      <c r="J100" s="112"/>
-    </row>
-    <row r="101" spans="10:10" ht="15">
-      <c r="J101" s="112"/>
-    </row>
-    <row r="102" spans="10:10" ht="15">
-      <c r="J102" s="112"/>
-    </row>
-    <row r="103" spans="10:10" ht="15">
-      <c r="J103" s="112"/>
-    </row>
-    <row r="104" spans="10:10" ht="15">
-      <c r="J104" s="112"/>
-    </row>
-    <row r="105" spans="10:10" ht="15">
-      <c r="J105" s="112"/>
-    </row>
-    <row r="106" spans="10:10" ht="15">
-      <c r="J106" s="112"/>
+      <c r="E79" s="112"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="E80" s="112"/>
+    </row>
+    <row r="81" spans="5:5" ht="15">
+      <c r="E81" s="112"/>
+    </row>
+    <row r="82" spans="5:5" ht="15">
+      <c r="E82" s="112"/>
+    </row>
+    <row r="83" spans="5:5" ht="15">
+      <c r="E83" s="112"/>
+    </row>
+    <row r="84" spans="5:5" ht="15">
+      <c r="E84" s="112"/>
+    </row>
+    <row r="85" spans="5:5" ht="15">
+      <c r="E85" s="112"/>
+    </row>
+    <row r="86" spans="5:5" ht="15">
+      <c r="E86" s="112"/>
+    </row>
+    <row r="87" spans="5:5" ht="15">
+      <c r="E87" s="112"/>
+    </row>
+    <row r="88" spans="5:5" ht="15">
+      <c r="E88" s="112"/>
+    </row>
+    <row r="89" spans="5:5" ht="15">
+      <c r="E89" s="112"/>
+    </row>
+    <row r="90" spans="5:5" ht="15">
+      <c r="E90" s="112"/>
+    </row>
+    <row r="91" spans="5:5" ht="15">
+      <c r="E91" s="112"/>
+    </row>
+    <row r="92" spans="5:5" ht="15">
+      <c r="E92" s="112"/>
+    </row>
+    <row r="93" spans="5:5" ht="15">
+      <c r="E93" s="112"/>
+    </row>
+    <row r="94" spans="5:5" ht="15">
+      <c r="E94" s="112"/>
+    </row>
+    <row r="95" spans="5:5" ht="15">
+      <c r="E95" s="112"/>
+    </row>
+    <row r="96" spans="5:5" ht="15">
+      <c r="E96" s="112"/>
+    </row>
+    <row r="97" spans="5:5" ht="15">
+      <c r="E97" s="112"/>
+    </row>
+    <row r="98" spans="5:5" ht="15">
+      <c r="E98" s="112"/>
+    </row>
+    <row r="99" spans="5:5" ht="15">
+      <c r="E99" s="112"/>
+    </row>
+    <row r="100" spans="5:5" ht="15">
+      <c r="E100" s="112"/>
+    </row>
+    <row r="101" spans="5:5" ht="15">
+      <c r="E101" s="112"/>
+    </row>
+    <row r="102" spans="5:5" ht="15">
+      <c r="E102" s="112"/>
+    </row>
+    <row r="103" spans="5:5" ht="15">
+      <c r="E103" s="112"/>
+    </row>
+    <row r="104" spans="5:5" ht="15">
+      <c r="E104" s="112"/>
+    </row>
+    <row r="105" spans="5:5" ht="15">
+      <c r="E105" s="112"/>
+    </row>
+    <row r="106" spans="5:5" ht="15">
+      <c r="E106" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C24 C38 C54:I54 C65:C66 C78:I78">
+  <conditionalFormatting sqref="C24 C38 C65:C66 C54:D54 C78:D78 D65">
     <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:I65">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
-      <formula>D$7=""</formula>
+  <conditionalFormatting sqref="E107:E1048576">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+      <formula>COUNTA(XFC108:D108)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J3 J107:J1048576">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
-      <formula>COUNTA(D2:I2)=1</formula>
+  <conditionalFormatting sqref="E6:E106">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+      <formula>E$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J106">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
-      <formula>J$7=""</formula>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+      <formula>F$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
-      <formula>K$6=""</formula>
+  <conditionalFormatting sqref="E1:E3">
+    <cfRule type="expression" dxfId="0" priority="56" stopIfTrue="1">
+      <formula>COUNTA(D2:D2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
@@ -37822,31 +37296,31 @@
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:E102">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="notEqual">
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$E$102</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39180,31 +38654,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:E101">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="notEqual">
       <formula>$D$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>$E$101</formula>
     </cfRule>
   </conditionalFormatting>
